--- a/HoopCut_net/labels.xlsx
+++ b/HoopCut_net/labels.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnaubarrera/Desktop/MSc Computer Vision/TFM/labeled_plays_NBA/HoopCut_net/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF5959-BAED-544F-A1C0-786B2756FBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E2987-AEE9-654A-A915-C79C6A4C81D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="660" windowWidth="25440" windowHeight="14100" xr2:uid="{4AA51BCD-2A0F-024B-80E1-BD5BFB544BE4}"/>
+    <workbookView xWindow="4960" yWindow="660" windowWidth="26880" windowHeight="15300" xr2:uid="{4AA51BCD-2A0F-024B-80E1-BD5BFB544BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="511">
   <si>
     <t>Video ID</t>
   </si>
@@ -1554,9 +1554,6 @@
   </si>
   <si>
     <t>second:</t>
-  </si>
-  <si>
-    <t>"Frame in which the ball touches the rim or the backboard"</t>
   </si>
   <si>
     <r>
@@ -1586,13 +1583,22 @@
   <si>
     <t>Unceinterty is because the image moves every two frames</t>
   </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>"Frame in which the ball touches the rim or the backboard, or in case of a blocked shot, when the defender touches the ball. In case of an airball, when the ball is at the level of the rim defender touches the ball"</t>
+  </si>
+  <si>
+    <t>No shot nor rebound. Wrong NBA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1623,7 +1629,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1639,6 +1645,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,7 +1881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1879,31 +1891,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1931,8 +1944,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="683895" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -1999,7 +2012,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 2">
@@ -2073,8 +2086,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="393700" cy="173766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -2141,7 +2154,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CuadroTexto 3">
@@ -2527,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789A4509-7D85-454D-86C4-E4DA04D16C01}">
-  <dimension ref="B1:H502"/>
+  <dimension ref="A1:H502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="G343" sqref="G343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2557,7 +2570,7 @@
       <c r="F2" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>503</v>
       </c>
     </row>
@@ -2568,60 +2581,60 @@
       <c r="C3" s="7">
         <v>374</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>C3/60</f>
         <v>6.2333333333333334</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>506</v>
+      <c r="G3" s="13" t="s">
+        <v>509</v>
       </c>
       <c r="H3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>374</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <f>C4/60</f>
         <v>6.2333333333333334</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>507</v>
+      <c r="G4" s="16" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>370</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <f>C5/60</f>
         <v>6.166666666666667</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6">
         <v>388</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <f>C6/60</f>
         <v>6.4666666666666668</v>
       </c>
@@ -2630,10 +2643,10 @@
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7">
         <v>328</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <f>C7/60</f>
         <v>5.4666666666666668</v>
       </c>
@@ -2642,10 +2655,10 @@
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8">
         <v>188</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <f t="shared" ref="D8:D71" si="0">C8/60</f>
         <v>3.1333333333333333</v>
       </c>
@@ -2654,3598 +2667,4290 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="17">
+      <c r="C9">
+        <v>350</v>
+      </c>
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="17">
+      <c r="C10">
+        <v>368</v>
+      </c>
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.1333333333333337</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="17">
+      <c r="C11">
+        <v>530</v>
+      </c>
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.8333333333333339</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="17">
+      <c r="C12">
+        <v>274</v>
+      </c>
+      <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5666666666666664</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17">
+      <c r="C13">
+        <v>386</v>
+      </c>
+      <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.4333333333333336</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="17">
+      <c r="C14">
+        <v>336</v>
+      </c>
+      <c r="D14" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="17">
+      <c r="C15">
+        <v>266</v>
+      </c>
+      <c r="D15" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4333333333333336</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="17">
+      <c r="C16">
+        <v>204</v>
+      </c>
+      <c r="D16" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="17">
+      <c r="C17">
+        <v>392</v>
+      </c>
+      <c r="D17" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5333333333333332</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="17">
+      <c r="C18">
+        <v>402</v>
+      </c>
+      <c r="D18" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="17">
+      <c r="C19">
+        <v>390</v>
+      </c>
+      <c r="D19" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="17">
+      <c r="C20">
+        <v>154</v>
+      </c>
+      <c r="D20" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5666666666666669</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="17">
+      <c r="C21">
+        <v>216</v>
+      </c>
+      <c r="D21" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="17">
+      <c r="C22">
+        <v>241</v>
+      </c>
+      <c r="D22" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0166666666666666</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="17">
+      <c r="C23">
+        <v>410</v>
+      </c>
+      <c r="D23" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.833333333333333</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="17">
+      <c r="C24">
+        <v>332</v>
+      </c>
+      <c r="D24" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5333333333333332</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="17">
+      <c r="C25">
+        <v>290</v>
+      </c>
+      <c r="D25" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="17">
+      <c r="C26">
+        <v>366</v>
+      </c>
+      <c r="D26" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="17">
+      <c r="C27">
+        <v>252</v>
+      </c>
+      <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="17">
+      <c r="C28">
+        <v>219</v>
+      </c>
+      <c r="D28" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="17">
+      <c r="C29">
+        <v>240</v>
+      </c>
+      <c r="D29" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="17">
+      <c r="C30">
+        <v>368</v>
+      </c>
+      <c r="D30" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.1333333333333337</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="17">
+      <c r="C31">
+        <v>234</v>
+      </c>
+      <c r="D31" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="17">
+      <c r="C32">
+        <v>319</v>
+      </c>
+      <c r="D32" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3166666666666664</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="17">
+      <c r="C33">
+        <v>298</v>
+      </c>
+      <c r="D33" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9666666666666668</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="17">
+      <c r="C34">
+        <v>272</v>
+      </c>
+      <c r="D34" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.5333333333333332</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="17">
+      <c r="C35">
+        <v>178</v>
+      </c>
+      <c r="D35" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="17">
+      <c r="C36">
+        <v>89</v>
+      </c>
+      <c r="D36" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4833333333333334</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="17">
+      <c r="C37">
+        <v>138</v>
+      </c>
+      <c r="D37" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="17">
+      <c r="C38">
+        <v>306</v>
+      </c>
+      <c r="D38" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="17">
+      <c r="C39">
+        <v>122</v>
+      </c>
+      <c r="D39" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0333333333333332</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="17">
+      <c r="C40">
+        <v>262</v>
+      </c>
+      <c r="D40" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3666666666666663</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="17">
+      <c r="C41">
+        <v>211</v>
+      </c>
+      <c r="D41" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5166666666666666</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="17">
+      <c r="C42">
+        <v>243</v>
+      </c>
+      <c r="D42" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="17">
+      <c r="C43">
+        <v>292</v>
+      </c>
+      <c r="D43" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8666666666666663</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="17">
+      <c r="C44">
+        <v>328</v>
+      </c>
+      <c r="D44" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="17">
+      <c r="C45">
+        <v>341</v>
+      </c>
+      <c r="D45" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6833333333333336</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="17">
+      <c r="C46">
+        <v>448</v>
+      </c>
+      <c r="D46" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.4666666666666668</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="17">
+      <c r="C47">
+        <v>326</v>
+      </c>
+      <c r="D47" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4333333333333336</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="17">
+      <c r="C48">
+        <v>383</v>
+      </c>
+      <c r="D48" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>6.3833333333333337</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="17">
+      <c r="C49">
+        <v>385</v>
+      </c>
+      <c r="D49" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <v>6.416666666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="17">
+      <c r="C50">
+        <v>355</v>
+      </c>
+      <c r="D50" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="17">
+      <c r="C51">
+        <v>220</v>
+      </c>
+      <c r="D51" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="17">
+      <c r="C52">
+        <v>317</v>
+      </c>
+      <c r="D52" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <v>5.2833333333333332</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="17">
+      <c r="C53">
+        <v>216</v>
+      </c>
+      <c r="D53" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="17">
+      <c r="C54">
+        <v>146</v>
+      </c>
+      <c r="D54" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2.4333333333333331</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="17">
+      <c r="C55">
+        <v>155</v>
+      </c>
+      <c r="D55" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="17">
+      <c r="C56">
+        <v>285</v>
+      </c>
+      <c r="D56" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="17">
+      <c r="C57">
+        <v>316</v>
+      </c>
+      <c r="D57" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+        <v>5.2666666666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="17">
+      <c r="C58">
+        <v>469</v>
+      </c>
+      <c r="D58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+        <v>7.8166666666666664</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="17">
+      <c r="C59">
+        <v>324</v>
+      </c>
+      <c r="D59" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="17">
+      <c r="C60">
+        <v>240</v>
+      </c>
+      <c r="D60" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="17">
+      <c r="C61" t="s">
+        <v>508</v>
+      </c>
+      <c r="D61" s="14" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="17">
+      <c r="C62">
+        <v>273</v>
+      </c>
+      <c r="D62" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="17">
+      <c r="C63">
+        <v>361</v>
+      </c>
+      <c r="D63" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+        <v>6.0166666666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="17">
+      <c r="C64">
+        <v>282</v>
+      </c>
+      <c r="D64" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="17">
+      <c r="C65">
+        <v>226</v>
+      </c>
+      <c r="D65" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7666666666666666</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="17">
+      <c r="C66">
+        <v>334</v>
+      </c>
+      <c r="D66" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5666666666666664</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="17">
+      <c r="C67">
+        <v>450</v>
+      </c>
+      <c r="D67" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="17">
+      <c r="C68">
+        <v>221</v>
+      </c>
+      <c r="D68" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6833333333333331</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="17">
+      <c r="C69">
+        <v>137</v>
+      </c>
+      <c r="D69" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2833333333333332</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="17">
+      <c r="C70">
+        <v>379</v>
+      </c>
+      <c r="D70" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.3166666666666664</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="17">
+      <c r="C71">
+        <v>52</v>
+      </c>
+      <c r="D71" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="17">
+      <c r="C72">
+        <v>378</v>
+      </c>
+      <c r="D72" s="14">
         <f t="shared" ref="D72:D135" si="1">C72/60</f>
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="17">
+      <c r="C73">
+        <v>307</v>
+      </c>
+      <c r="D73" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.1166666666666663</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="17">
+      <c r="C74">
+        <v>293</v>
+      </c>
+      <c r="D74" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8833333333333337</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="17">
+      <c r="C75">
+        <v>257</v>
+      </c>
+      <c r="D75" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.2833333333333332</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="17">
+      <c r="C76">
+        <v>325</v>
+      </c>
+      <c r="D76" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.416666666666667</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="17">
+      <c r="C77">
+        <v>395</v>
+      </c>
+      <c r="D77" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.583333333333333</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="17">
+      <c r="C78">
+        <v>358</v>
+      </c>
+      <c r="D78" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9666666666666668</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="17">
+      <c r="C79">
+        <v>114</v>
+      </c>
+      <c r="D79" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="17">
+      <c r="C80">
+        <v>298</v>
+      </c>
+      <c r="D80" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9666666666666668</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="17">
+      <c r="C81">
+        <v>288</v>
+      </c>
+      <c r="D81" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="17">
+      <c r="C82">
+        <v>432</v>
+      </c>
+      <c r="D82" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="17">
+      <c r="C83">
+        <v>358</v>
+      </c>
+      <c r="D83" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9666666666666668</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="17">
+      <c r="C84">
+        <v>468</v>
+      </c>
+      <c r="D84" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="17">
+      <c r="C85">
+        <v>147</v>
+      </c>
+      <c r="D85" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="17">
+      <c r="C86">
+        <v>332</v>
+      </c>
+      <c r="D86" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5333333333333332</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="17">
+      <c r="C87">
+        <v>330</v>
+      </c>
+      <c r="D87" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="17">
+      <c r="C88">
+        <v>396</v>
+      </c>
+      <c r="D88" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="17">
+      <c r="C89">
+        <v>300</v>
+      </c>
+      <c r="D89" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="17">
+      <c r="C90">
+        <v>23</v>
+      </c>
+      <c r="D90" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.38333333333333336</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="17">
+      <c r="C91">
+        <v>175</v>
+      </c>
+      <c r="D91" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="17">
+      <c r="C92">
+        <v>286</v>
+      </c>
+      <c r="D92" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.7666666666666666</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="17">
+      <c r="C93">
+        <v>192</v>
+      </c>
+      <c r="D93" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="17">
+      <c r="C94">
+        <v>258</v>
+      </c>
+      <c r="D94" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="17">
+      <c r="C95">
+        <v>116</v>
+      </c>
+      <c r="D95" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9333333333333333</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="17">
+      <c r="C96">
+        <v>476</v>
+      </c>
+      <c r="D96" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.9333333333333336</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="17">
+      <c r="C97">
+        <v>315</v>
+      </c>
+      <c r="D97" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="17">
+      <c r="C98">
+        <v>336</v>
+      </c>
+      <c r="D98" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="17">
+      <c r="C99">
+        <v>398</v>
+      </c>
+      <c r="D99" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.6333333333333337</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="17">
+      <c r="C100">
+        <v>116</v>
+      </c>
+      <c r="D100" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.9333333333333333</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="17">
+      <c r="C101">
+        <v>490</v>
+      </c>
+      <c r="D101" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.1666666666666661</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="17">
+      <c r="C102">
+        <v>199</v>
+      </c>
+      <c r="D102" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3166666666666669</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="17">
+      <c r="C103">
+        <v>150</v>
+      </c>
+      <c r="D103" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="17">
+      <c r="C104">
+        <v>249</v>
+      </c>
+      <c r="D104" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="17">
+      <c r="C105">
+        <v>235</v>
+      </c>
+      <c r="D105" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9166666666666665</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="17">
+      <c r="C106">
+        <v>372</v>
+      </c>
+      <c r="D106" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="17">
+      <c r="C107">
+        <v>248</v>
+      </c>
+      <c r="D107" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1333333333333337</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="17">
+      <c r="C108">
+        <v>401</v>
+      </c>
+      <c r="D108" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.6833333333333336</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="17">
+      <c r="C109">
+        <v>315</v>
+      </c>
+      <c r="D109" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="17">
+      <c r="C110">
+        <v>471</v>
+      </c>
+      <c r="D110" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="17">
+      <c r="C111">
+        <v>132</v>
+      </c>
+      <c r="D111" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="17">
+      <c r="C112">
+        <v>336</v>
+      </c>
+      <c r="D112" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="17">
+      <c r="C113">
+        <v>203</v>
+      </c>
+      <c r="D113" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3833333333333333</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="17">
+      <c r="C114">
+        <v>328</v>
+      </c>
+      <c r="D114" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="17">
+      <c r="C115">
+        <v>414</v>
+      </c>
+      <c r="D115" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="17">
+      <c r="C116">
+        <v>276</v>
+      </c>
+      <c r="D116" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="17">
+      <c r="C117">
+        <v>139</v>
+      </c>
+      <c r="D117" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3166666666666669</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="17">
+      <c r="C118">
+        <v>354</v>
+      </c>
+      <c r="D118" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="17">
+      <c r="C119">
+        <v>153</v>
+      </c>
+      <c r="D119" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="17">
+      <c r="C120">
+        <v>448</v>
+      </c>
+      <c r="D120" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.4666666666666668</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="17">
+      <c r="C121">
+        <v>35</v>
+      </c>
+      <c r="D121" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="17">
+      <c r="C122">
+        <v>279</v>
+      </c>
+      <c r="D122" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="17">
+      <c r="C123">
+        <v>240</v>
+      </c>
+      <c r="D123" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="17">
+      <c r="C124">
+        <v>344</v>
+      </c>
+      <c r="D124" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.7333333333333334</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="17">
+      <c r="C125">
+        <v>261</v>
+      </c>
+      <c r="D125" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="17">
+      <c r="C126">
+        <v>169</v>
+      </c>
+      <c r="D126" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.8166666666666669</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="17">
+      <c r="C127">
+        <v>269</v>
+      </c>
+      <c r="D127" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.4833333333333334</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="17">
+      <c r="C128">
+        <v>354</v>
+      </c>
+      <c r="D128" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="17">
+      <c r="C129">
+        <v>242</v>
+      </c>
+      <c r="D129" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0333333333333332</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="17">
+      <c r="C130">
+        <v>376</v>
+      </c>
+      <c r="D130" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2666666666666666</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="17">
+      <c r="C131">
+        <v>414</v>
+      </c>
+      <c r="D131" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="17">
+      <c r="C132">
+        <v>239</v>
+      </c>
+      <c r="D132" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9833333333333334</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="17">
+      <c r="C133">
+        <v>470</v>
+      </c>
+      <c r="D133" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.833333333333333</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="17">
+      <c r="C134">
+        <v>304</v>
+      </c>
+      <c r="D134" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0666666666666664</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="17">
+      <c r="C135">
+        <v>303</v>
+      </c>
+      <c r="D135" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="17">
+      <c r="C136">
+        <v>364</v>
+      </c>
+      <c r="D136" s="14">
         <f t="shared" ref="D136:D199" si="2">C136/60</f>
-        <v>0</v>
+        <v>6.0666666666666664</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="17">
+      <c r="C137">
+        <v>348</v>
+      </c>
+      <c r="D137" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="17">
+      <c r="C138">
+        <v>354</v>
+      </c>
+      <c r="D138" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="17">
+      <c r="C139">
+        <v>260</v>
+      </c>
+      <c r="D139" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="17">
+      <c r="C140">
+        <v>456</v>
+      </c>
+      <c r="D140" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="17">
+      <c r="C141">
+        <v>434</v>
+      </c>
+      <c r="D141" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.2333333333333334</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="17">
+      <c r="C142">
+        <v>374</v>
+      </c>
+      <c r="D142" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.2333333333333334</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="17">
+      <c r="C143">
+        <v>296</v>
+      </c>
+      <c r="D143" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.9333333333333336</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="17">
+      <c r="C144">
+        <v>259</v>
+      </c>
+      <c r="D144" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.3166666666666664</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="17">
+      <c r="C145">
+        <v>197</v>
+      </c>
+      <c r="D145" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.2833333333333332</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="17">
+      <c r="C146">
+        <v>73</v>
+      </c>
+      <c r="D146" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2166666666666666</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="17">
+      <c r="C147">
+        <v>436</v>
+      </c>
+      <c r="D147" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.2666666666666666</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="17">
+      <c r="C148">
+        <v>316</v>
+      </c>
+      <c r="D148" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.2666666666666666</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="17">
+      <c r="C149">
+        <v>259</v>
+      </c>
+      <c r="D149" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.3166666666666664</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="17">
+      <c r="C150">
+        <v>364</v>
+      </c>
+      <c r="D150" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.0666666666666664</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="17">
+      <c r="C151">
+        <v>364</v>
+      </c>
+      <c r="D151" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.0666666666666664</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="17">
+      <c r="C152">
+        <v>306</v>
+      </c>
+      <c r="D152" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B153" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="17">
+      <c r="C153">
+        <v>396</v>
+      </c>
+      <c r="D153" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="17">
+      <c r="C154">
+        <v>282</v>
+      </c>
+      <c r="D154" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="17">
+      <c r="C155">
+        <v>262</v>
+      </c>
+      <c r="D155" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.3666666666666663</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="17">
+      <c r="C156">
+        <v>397</v>
+      </c>
+      <c r="D156" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6166666666666663</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="17">
+      <c r="C157">
+        <v>439</v>
+      </c>
+      <c r="D157" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.3166666666666664</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="17">
+      <c r="C158">
+        <v>438</v>
+      </c>
+      <c r="D158" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B159" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="17">
+      <c r="C159">
+        <v>209</v>
+      </c>
+      <c r="D159" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.4833333333333334</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="17">
+      <c r="C160">
+        <v>298</v>
+      </c>
+      <c r="D160" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.9666666666666668</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="17">
+      <c r="C161">
+        <v>447</v>
+      </c>
+      <c r="D161" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="17">
+      <c r="C162">
+        <v>243</v>
+      </c>
+      <c r="D162" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="17">
+      <c r="C163">
+        <v>402</v>
+      </c>
+      <c r="D163" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="17">
+      <c r="C164">
+        <v>337</v>
+      </c>
+      <c r="D164" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6166666666666663</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="17">
+      <c r="C165">
+        <v>368</v>
+      </c>
+      <c r="D165" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.1333333333333337</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="17">
+      <c r="C166">
+        <v>400</v>
+      </c>
+      <c r="D166" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="17">
+      <c r="C167">
+        <v>276</v>
+      </c>
+      <c r="D167" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B168" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="17">
+      <c r="C168">
+        <v>289</v>
+      </c>
+      <c r="D168" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8166666666666664</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="17">
+      <c r="C169">
+        <v>80</v>
+      </c>
+      <c r="D169" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="17">
+      <c r="C170">
+        <v>458</v>
+      </c>
+      <c r="D170" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.6333333333333337</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="17">
+      <c r="C171">
+        <v>437</v>
+      </c>
+      <c r="D171" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.2833333333333332</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="17">
+      <c r="C172">
+        <v>508</v>
+      </c>
+      <c r="D172" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.4666666666666668</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="17">
+      <c r="C173">
+        <v>287</v>
+      </c>
+      <c r="D173" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.7833333333333332</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="17">
+      <c r="C174">
+        <v>159</v>
+      </c>
+      <c r="D174" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="17">
+      <c r="C175">
+        <v>428</v>
+      </c>
+      <c r="D175" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.1333333333333337</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="17">
+      <c r="C176">
+        <v>248</v>
+      </c>
+      <c r="D176" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1333333333333337</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C177" s="9"/>
-      <c r="D177" s="17">
+      <c r="C177">
+        <v>471</v>
+      </c>
+      <c r="D177" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="17">
+      <c r="C178">
+        <v>280</v>
+      </c>
+      <c r="D178" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="17">
+      <c r="C179">
+        <v>324</v>
+      </c>
+      <c r="D179" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="17">
+      <c r="C180">
+        <v>333</v>
+      </c>
+      <c r="D180" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="17">
+      <c r="C181">
+        <v>274</v>
+      </c>
+      <c r="D181" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5666666666666664</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="17">
+      <c r="C182">
+        <v>492</v>
+      </c>
+      <c r="D182" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="17">
+      <c r="C183">
+        <v>288</v>
+      </c>
+      <c r="D183" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B184" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="17">
+      <c r="C184">
+        <v>250</v>
+      </c>
+      <c r="D184" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B185" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="17">
+      <c r="C185">
+        <v>351</v>
+      </c>
+      <c r="D185" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="17">
+      <c r="C186">
+        <v>289</v>
+      </c>
+      <c r="D186" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8166666666666664</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B187" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="17">
+      <c r="C187">
+        <v>288</v>
+      </c>
+      <c r="D187" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B188" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="17">
+      <c r="C188">
+        <v>405</v>
+      </c>
+      <c r="D188" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="17">
+      <c r="C189">
+        <v>286</v>
+      </c>
+      <c r="D189" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.7666666666666666</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C190" s="9"/>
-      <c r="D190" s="17">
+      <c r="C190">
+        <v>341</v>
+      </c>
+      <c r="D190" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6833333333333336</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="17">
+      <c r="C191">
+        <v>390</v>
+      </c>
+      <c r="D191" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="17">
+      <c r="C192">
+        <v>371</v>
+      </c>
+      <c r="D192" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.1833333333333336</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="17">
+      <c r="C193">
+        <v>280</v>
+      </c>
+      <c r="D193" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C194" s="9"/>
-      <c r="D194" s="17">
+      <c r="C194">
+        <v>349</v>
+      </c>
+      <c r="D194" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.8166666666666664</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="17">
+      <c r="C195">
+        <v>318</v>
+      </c>
+      <c r="D195" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="17">
+      <c r="C196">
+        <v>393</v>
+      </c>
+      <c r="D196" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="17">
+      <c r="C197">
+        <v>565</v>
+      </c>
+      <c r="D197" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.4166666666666661</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C198" s="9"/>
-      <c r="D198" s="17">
+      <c r="C198">
+        <v>266</v>
+      </c>
+      <c r="D198" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4333333333333336</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C199" s="9"/>
-      <c r="D199" s="17">
+      <c r="C199">
+        <v>202</v>
+      </c>
+      <c r="D199" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.3666666666666667</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C200" s="9"/>
-      <c r="D200" s="17">
+      <c r="C200">
+        <v>420</v>
+      </c>
+      <c r="D200" s="14">
         <f t="shared" ref="D200:D263" si="3">C200/60</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B201" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C201" s="9"/>
-      <c r="D201" s="17">
+      <c r="C201">
+        <v>338</v>
+      </c>
+      <c r="D201" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6333333333333337</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B202" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C202" s="9"/>
-      <c r="D202" s="17">
+      <c r="C202">
+        <v>273</v>
+      </c>
+      <c r="D202" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C203" s="9"/>
-      <c r="D203" s="17">
+      <c r="C203">
+        <v>431</v>
+      </c>
+      <c r="D203" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.1833333333333336</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C204" s="9"/>
-      <c r="D204" s="17">
+      <c r="C204">
+        <v>276</v>
+      </c>
+      <c r="D204" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C205" s="9"/>
-      <c r="D205" s="17">
+      <c r="C205">
+        <v>409</v>
+      </c>
+      <c r="D205" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.8166666666666664</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C206" s="9"/>
-      <c r="D206" s="17">
+      <c r="C206">
+        <v>283</v>
+      </c>
+      <c r="D206" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.7166666666666668</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C207" s="9"/>
-      <c r="D207" s="17">
+      <c r="C207">
+        <v>435</v>
+      </c>
+      <c r="D207" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="17">
+      <c r="C208">
+        <v>338</v>
+      </c>
+      <c r="D208" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6333333333333337</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B209" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="17">
+      <c r="C209">
+        <v>231</v>
+      </c>
+      <c r="D209" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="17">
+      <c r="C210">
+        <v>274</v>
+      </c>
+      <c r="D210" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5666666666666664</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="17">
+      <c r="C211">
+        <v>244</v>
+      </c>
+      <c r="D211" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.0666666666666664</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C212" s="9"/>
-      <c r="D212" s="17">
+      <c r="C212">
+        <v>363</v>
+      </c>
+      <c r="D212" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="17">
+      <c r="C213">
+        <v>260</v>
+      </c>
+      <c r="D213" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B214" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="17">
+      <c r="C214">
+        <v>501</v>
+      </c>
+      <c r="D214" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B215" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C215" s="9"/>
-      <c r="D215" s="17">
+      <c r="C215">
+        <v>275</v>
+      </c>
+      <c r="D215" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.583333333333333</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B216" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="17">
+      <c r="C216">
+        <v>319</v>
+      </c>
+      <c r="D216" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.3166666666666664</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="17">
+      <c r="C217">
+        <v>293</v>
+      </c>
+      <c r="D217" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8833333333333337</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="17">
+      <c r="C218">
+        <v>283</v>
+      </c>
+      <c r="D218" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.7166666666666668</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C219" s="9"/>
-      <c r="D219" s="17">
+      <c r="C219">
+        <v>333</v>
+      </c>
+      <c r="D219" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="17">
+      <c r="C220">
+        <v>371</v>
+      </c>
+      <c r="D220" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.1833333333333336</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C221" s="9"/>
-      <c r="D221" s="17">
+      <c r="C221">
+        <v>287</v>
+      </c>
+      <c r="D221" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.7833333333333332</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B222" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="17">
+      <c r="C222">
+        <v>466</v>
+      </c>
+      <c r="D222" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.7666666666666666</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="17">
+      <c r="C223">
+        <v>216</v>
+      </c>
+      <c r="D223" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B224" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C224" s="9"/>
-      <c r="D224" s="17">
+      <c r="C224" t="s">
+        <v>508</v>
+      </c>
+      <c r="D224" s="14" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C225" s="9"/>
-      <c r="D225" s="17">
+      <c r="C225">
+        <v>385</v>
+      </c>
+      <c r="D225" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.416666666666667</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="17">
+      <c r="C226">
+        <v>345</v>
+      </c>
+      <c r="D226" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C227" s="9"/>
-      <c r="D227" s="17">
+      <c r="C227">
+        <v>177</v>
+      </c>
+      <c r="D227" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B228" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C228" s="9"/>
-      <c r="D228" s="17">
+      <c r="C228">
+        <v>390</v>
+      </c>
+      <c r="D228" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B229" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C229" s="9"/>
-      <c r="D229" s="17">
+      <c r="C229">
+        <v>328</v>
+      </c>
+      <c r="D229" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B230" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C230" s="9"/>
-      <c r="D230" s="17">
+      <c r="C230">
+        <v>266</v>
+      </c>
+      <c r="D230" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.4333333333333336</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B231" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C231" s="9"/>
-      <c r="D231" s="17">
+      <c r="C231">
+        <v>310</v>
+      </c>
+      <c r="D231" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B232" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="17">
+      <c r="C232">
+        <v>346</v>
+      </c>
+      <c r="D232" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.7666666666666666</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C233" s="9"/>
-      <c r="D233" s="17">
+      <c r="C233">
+        <v>341</v>
+      </c>
+      <c r="D233" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6833333333333336</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B234" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="17">
+      <c r="C234">
+        <v>274</v>
+      </c>
+      <c r="D234" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5666666666666664</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C235" s="9"/>
-      <c r="D235" s="17">
+      <c r="C235">
+        <v>256</v>
+      </c>
+      <c r="D235" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2666666666666666</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B236" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C236" s="9"/>
-      <c r="D236" s="17">
+      <c r="C236">
+        <v>263</v>
+      </c>
+      <c r="D236" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.3833333333333337</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B237" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C237" s="9"/>
-      <c r="D237" s="17">
+      <c r="C237">
+        <v>328</v>
+      </c>
+      <c r="D237" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B238" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="17">
+      <c r="C238">
+        <v>312</v>
+      </c>
+      <c r="D238" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B239" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C239" s="9"/>
-      <c r="D239" s="17">
+      <c r="C239">
+        <v>214</v>
+      </c>
+      <c r="D239" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.5666666666666669</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="17">
+      <c r="C240">
+        <v>272</v>
+      </c>
+      <c r="D240" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5333333333333332</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B241" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="17">
+      <c r="C241">
+        <v>339</v>
+      </c>
+      <c r="D241" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B242" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C242" s="9"/>
-      <c r="D242" s="17">
+      <c r="C242">
+        <v>188</v>
+      </c>
+      <c r="D242" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.1333333333333333</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C243" s="9"/>
-      <c r="D243" s="17">
+      <c r="C243">
+        <v>359</v>
+      </c>
+      <c r="D243" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.9833333333333334</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B244" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C244" s="9"/>
-      <c r="D244" s="17">
+      <c r="C244">
+        <v>351</v>
+      </c>
+      <c r="D244" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C245" s="9"/>
-      <c r="D245" s="17">
+      <c r="C245">
+        <v>276</v>
+      </c>
+      <c r="D245" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C246" s="9"/>
-      <c r="D246" s="17">
+      <c r="C246">
+        <v>328</v>
+      </c>
+      <c r="D246" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="17">
+      <c r="C247">
+        <v>82</v>
+      </c>
+      <c r="D247" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.3666666666666667</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C248" s="9"/>
-      <c r="D248" s="17">
+      <c r="C248">
+        <v>346</v>
+      </c>
+      <c r="D248" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.7666666666666666</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C249" s="9"/>
-      <c r="D249" s="17">
+      <c r="C249">
+        <v>344</v>
+      </c>
+      <c r="D249" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.7333333333333334</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C250" s="9"/>
-      <c r="D250" s="17">
+      <c r="C250">
+        <v>338</v>
+      </c>
+      <c r="D250" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.6333333333333337</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C251" s="9"/>
-      <c r="D251" s="17">
+      <c r="C251">
+        <v>310</v>
+      </c>
+      <c r="D251" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="17">
+      <c r="C252">
+        <v>277</v>
+      </c>
+      <c r="D252" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.6166666666666663</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="17">
+      <c r="C253">
+        <v>378</v>
+      </c>
+      <c r="D253" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C254" s="9"/>
-      <c r="D254" s="17">
+      <c r="C254">
+        <v>348</v>
+      </c>
+      <c r="D254" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C255" s="9"/>
-      <c r="D255" s="17">
+      <c r="C255">
+        <v>466</v>
+      </c>
+      <c r="D255" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.7666666666666666</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C256" s="9"/>
-      <c r="D256" s="17">
+      <c r="C256">
+        <v>150</v>
+      </c>
+      <c r="D256" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B257" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C257" s="9"/>
-      <c r="D257" s="17">
+      <c r="C257">
+        <v>246</v>
+      </c>
+      <c r="D257" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B258" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C258" s="9"/>
-      <c r="D258" s="17">
+      <c r="C258">
+        <v>209</v>
+      </c>
+      <c r="D258" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.4833333333333334</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="17">
+      <c r="C259">
+        <v>326</v>
+      </c>
+      <c r="D259" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4333333333333336</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B260" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C260" s="9"/>
-      <c r="D260" s="17">
+      <c r="C260">
+        <v>328</v>
+      </c>
+      <c r="D260" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C261" s="9"/>
-      <c r="D261" s="17">
+      <c r="C261">
+        <v>260</v>
+      </c>
+      <c r="D261" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B262" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="17">
+      <c r="C262">
+        <v>288</v>
+      </c>
+      <c r="D262" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B263" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C263" s="9"/>
-      <c r="D263" s="17">
+      <c r="C263">
+        <v>28</v>
+      </c>
+      <c r="D263" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B264" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C264" s="9"/>
-      <c r="D264" s="17">
+      <c r="C264">
+        <v>238</v>
+      </c>
+      <c r="D264" s="14">
         <f t="shared" ref="D264:D327" si="4">C264/60</f>
-        <v>0</v>
+        <v>3.9666666666666668</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B265" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C265" s="9"/>
-      <c r="D265" s="17">
+      <c r="C265">
+        <v>335</v>
+      </c>
+      <c r="D265" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.583333333333333</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B266" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="17">
+      <c r="C266">
+        <v>284</v>
+      </c>
+      <c r="D266" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.7333333333333334</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B267" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C267" s="9"/>
-      <c r="D267" s="17">
+      <c r="C267">
+        <v>236</v>
+      </c>
+      <c r="D267" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9333333333333331</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C268" s="9"/>
-      <c r="D268" s="17">
+      <c r="C268">
+        <v>295</v>
+      </c>
+      <c r="D268" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.916666666666667</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B269" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C269" s="9"/>
-      <c r="D269" s="17">
+      <c r="C269">
+        <v>145</v>
+      </c>
+      <c r="D269" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4166666666666665</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B270" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C270" s="9"/>
-      <c r="D270" s="17">
+      <c r="C270">
+        <v>178</v>
+      </c>
+      <c r="D270" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B271" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C271" s="9"/>
-      <c r="D271" s="17">
+      <c r="C271">
+        <v>144</v>
+      </c>
+      <c r="D271" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C272" s="9"/>
-      <c r="D272" s="17">
+      <c r="C272">
+        <v>374</v>
+      </c>
+      <c r="D272" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.2333333333333334</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B273" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C273" s="9"/>
-      <c r="D273" s="17">
+      <c r="C273">
+        <v>498</v>
+      </c>
+      <c r="D273" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B274" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C274" s="9"/>
-      <c r="D274" s="17">
+      <c r="C274">
+        <v>295</v>
+      </c>
+      <c r="D274" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.916666666666667</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C275" s="9"/>
-      <c r="D275" s="17">
+      <c r="C275">
+        <v>296</v>
+      </c>
+      <c r="D275" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9333333333333336</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B276" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C276" s="9"/>
-      <c r="D276" s="17">
+      <c r="C276">
+        <v>178</v>
+      </c>
+      <c r="D276" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B277" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C277" s="9"/>
-      <c r="D277" s="17">
+      <c r="C277">
+        <v>236</v>
+      </c>
+      <c r="D277" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9333333333333331</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B278" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C278" s="9"/>
-      <c r="D278" s="17">
+      <c r="C278">
+        <v>346</v>
+      </c>
+      <c r="D278" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.7666666666666666</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B279" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C279" s="9"/>
-      <c r="D279" s="17">
+      <c r="C279">
+        <v>233</v>
+      </c>
+      <c r="D279" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.8833333333333333</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B280" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C280" s="9"/>
-      <c r="D280" s="17">
+      <c r="C280">
+        <v>263</v>
+      </c>
+      <c r="D280" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.3833333333333337</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B281" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C281" s="9"/>
-      <c r="D281" s="17">
+      <c r="C281">
+        <v>216</v>
+      </c>
+      <c r="D281" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B282" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C282" s="9"/>
-      <c r="D282" s="17">
+      <c r="C282">
+        <v>394</v>
+      </c>
+      <c r="D282" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.5666666666666664</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C283" s="9"/>
-      <c r="D283" s="17">
+      <c r="C283">
+        <v>217</v>
+      </c>
+      <c r="D283" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.6166666666666667</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B284" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C284" s="9"/>
-      <c r="D284" s="17">
+      <c r="C284">
+        <v>43</v>
+      </c>
+      <c r="D284" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B285" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C285" s="9"/>
-      <c r="D285" s="17">
+      <c r="C285">
+        <v>198</v>
+      </c>
+      <c r="D285" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B286" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C286" s="9"/>
-      <c r="D286" s="17">
+      <c r="C286">
+        <v>247</v>
+      </c>
+      <c r="D286" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.1166666666666663</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B287" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C287" s="9"/>
-      <c r="D287" s="17">
+      <c r="C287">
+        <v>196</v>
+      </c>
+      <c r="D287" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.2666666666666666</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C288" s="9"/>
-      <c r="D288" s="17">
+      <c r="C288">
+        <v>359</v>
+      </c>
+      <c r="D288" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.9833333333333334</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B289" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C289" s="9"/>
-      <c r="D289" s="17">
+      <c r="C289">
+        <v>241</v>
+      </c>
+      <c r="D289" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.0166666666666666</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B290" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C290" s="9"/>
-      <c r="D290" s="17">
+      <c r="C290">
+        <v>332</v>
+      </c>
+      <c r="D290" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.5333333333333332</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B291" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C291" s="9"/>
-      <c r="D291" s="17">
+      <c r="C291">
+        <v>265</v>
+      </c>
+      <c r="D291" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.416666666666667</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B292" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C292" s="9"/>
-      <c r="D292" s="17">
+      <c r="C292">
+        <v>156</v>
+      </c>
+      <c r="D292" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B293" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C293" s="9"/>
-      <c r="D293" s="17">
+      <c r="C293">
+        <v>337</v>
+      </c>
+      <c r="D293" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.6166666666666663</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B294" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C294" s="9"/>
-      <c r="D294" s="17">
+      <c r="C294">
+        <v>183</v>
+      </c>
+      <c r="D294" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C295" s="9"/>
-      <c r="D295" s="17">
+      <c r="C295" t="s">
+        <v>508</v>
+      </c>
+      <c r="D295" s="14" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B296" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="17">
+      <c r="C296">
+        <v>161</v>
+      </c>
+      <c r="D296" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6833333333333331</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B297" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C297" s="9"/>
-      <c r="D297" s="17">
+      <c r="C297">
+        <v>52</v>
+      </c>
+      <c r="D297" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B298" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C298" s="9"/>
-      <c r="D298" s="17">
+      <c r="C298">
+        <v>431</v>
+      </c>
+      <c r="D298" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.1833333333333336</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B299" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C299" s="9"/>
-      <c r="D299" s="17">
+      <c r="C299">
+        <v>252</v>
+      </c>
+      <c r="D299" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B300" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C300" s="9"/>
-      <c r="D300" s="17">
+      <c r="C300">
+        <v>390</v>
+      </c>
+      <c r="D300" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B301" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="17">
+      <c r="C301">
+        <v>157</v>
+      </c>
+      <c r="D301" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6166666666666667</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C302" s="9"/>
-      <c r="D302" s="17">
+      <c r="C302">
+        <v>265</v>
+      </c>
+      <c r="D302" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.416666666666667</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B303" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C303" s="9"/>
-      <c r="D303" s="17">
+      <c r="C303">
+        <v>240</v>
+      </c>
+      <c r="D303" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B304" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C304" s="9"/>
-      <c r="D304" s="17">
+      <c r="C304">
+        <v>263</v>
+      </c>
+      <c r="D304" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.3833333333333337</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B305" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C305" s="9"/>
-      <c r="D305" s="17">
+      <c r="C305">
+        <v>238</v>
+      </c>
+      <c r="D305" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9666666666666668</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B306" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C306" s="9"/>
-      <c r="D306" s="17">
+      <c r="C306">
+        <v>266</v>
+      </c>
+      <c r="D306" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.4333333333333336</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B307" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C307" s="9"/>
-      <c r="D307" s="17">
+      <c r="C307">
+        <v>270</v>
+      </c>
+      <c r="D307" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B308" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C308" s="9"/>
-      <c r="D308" s="17">
+      <c r="C308">
+        <v>101</v>
+      </c>
+      <c r="D308" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.6833333333333333</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C309" s="9"/>
-      <c r="D309" s="17">
+      <c r="C309">
+        <v>205</v>
+      </c>
+      <c r="D309" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4166666666666665</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B310" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C310" s="9"/>
-      <c r="D310" s="17">
+      <c r="C310">
+        <v>238</v>
+      </c>
+      <c r="D310" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9666666666666668</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B311" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C311" s="9"/>
-      <c r="D311" s="17">
+      <c r="C311">
+        <v>152</v>
+      </c>
+      <c r="D311" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.5333333333333332</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B312" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C312" s="9"/>
-      <c r="D312" s="17">
+      <c r="C312">
+        <v>386</v>
+      </c>
+      <c r="D312" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.4333333333333336</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B313" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C313" s="9"/>
-      <c r="D313" s="17">
+      <c r="C313">
+        <v>86</v>
+      </c>
+      <c r="D313" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.4333333333333333</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B314" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C314" s="9"/>
-      <c r="D314" s="17">
+      <c r="C314">
+        <v>252</v>
+      </c>
+      <c r="D314" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B315" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C315" s="9"/>
-      <c r="D315" s="17">
+      <c r="C315">
+        <v>247</v>
+      </c>
+      <c r="D315" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.1166666666666663</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C316" s="9"/>
-      <c r="D316" s="17">
+      <c r="C316">
+        <v>234</v>
+      </c>
+      <c r="D316" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B317" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C317" s="9"/>
-      <c r="D317" s="17">
+      <c r="C317">
+        <v>69</v>
+      </c>
+      <c r="D317" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B318" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C318" s="9"/>
-      <c r="D318" s="17">
+      <c r="C318">
+        <v>356</v>
+      </c>
+      <c r="D318" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.9333333333333336</v>
       </c>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B319" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C319" s="9"/>
-      <c r="D319" s="17">
+      <c r="C319">
+        <v>185</v>
+      </c>
+      <c r="D319" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.0833333333333335</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B320" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C320" s="9"/>
-      <c r="D320" s="17">
+      <c r="C320">
+        <v>90</v>
+      </c>
+      <c r="D320" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B321" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C321" s="9"/>
-      <c r="D321" s="17">
+      <c r="C321">
+        <v>197</v>
+      </c>
+      <c r="D321" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.2833333333333332</v>
       </c>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B322" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C322" s="9"/>
-      <c r="D322" s="17">
+      <c r="C322">
+        <v>168</v>
+      </c>
+      <c r="D322" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C323" s="9"/>
-      <c r="D323" s="17">
+      <c r="C323">
+        <v>220</v>
+      </c>
+      <c r="D323" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C324" s="9"/>
-      <c r="D324" s="17">
+      <c r="C324">
+        <v>178</v>
+      </c>
+      <c r="D324" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B325" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C325" s="9"/>
-      <c r="D325" s="17">
+      <c r="C325">
+        <v>119</v>
+      </c>
+      <c r="D325" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.9833333333333334</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B326" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C326" s="9"/>
-      <c r="D326" s="17">
+      <c r="C326">
+        <v>103</v>
+      </c>
+      <c r="D326" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.7166666666666666</v>
       </c>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C327" s="9"/>
-      <c r="D327" s="17">
+      <c r="C327">
+        <v>214</v>
+      </c>
+      <c r="D327" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.5666666666666669</v>
       </c>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B328" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C328" s="9"/>
-      <c r="D328" s="17">
+      <c r="C328">
+        <v>536</v>
+      </c>
+      <c r="D328" s="14">
         <f t="shared" ref="D328:D391" si="5">C328/60</f>
-        <v>0</v>
+        <v>8.9333333333333336</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C329" s="9"/>
-      <c r="D329" s="17">
+      <c r="C329">
+        <v>26</v>
+      </c>
+      <c r="D329" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C330" s="9"/>
-      <c r="D330" s="17">
+      <c r="C330">
+        <v>310</v>
+      </c>
+      <c r="D330" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B331" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C331" s="9"/>
-      <c r="D331" s="17">
+      <c r="C331">
+        <v>352</v>
+      </c>
+      <c r="D331" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.8666666666666663</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C332" s="9"/>
-      <c r="D332" s="17">
+      <c r="C332">
+        <v>350</v>
+      </c>
+      <c r="D332" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C333" s="9"/>
-      <c r="D333" s="17">
+      <c r="C333">
+        <v>62</v>
+      </c>
+      <c r="D333" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B334" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C334" s="9"/>
-      <c r="D334" s="17">
+      <c r="C334">
+        <v>146</v>
+      </c>
+      <c r="D334" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4333333333333331</v>
       </c>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C335" s="9"/>
-      <c r="D335" s="17">
+      <c r="C335">
+        <v>255</v>
+      </c>
+      <c r="D335" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C336" s="9"/>
-      <c r="D336" s="17">
+      <c r="C336">
+        <v>290</v>
+      </c>
+      <c r="D336" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C337" s="9"/>
-      <c r="D337" s="17">
+      <c r="C337">
+        <v>115</v>
+      </c>
+      <c r="D337" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.9166666666666667</v>
       </c>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C338" s="9"/>
-      <c r="D338" s="17">
+      <c r="C338">
+        <v>340</v>
+      </c>
+      <c r="D338" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C339" s="9"/>
-      <c r="D339" s="17">
+      <c r="C339">
+        <v>212</v>
+      </c>
+      <c r="D339" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5333333333333332</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C340" s="9"/>
-      <c r="D340" s="17">
+      <c r="C340">
+        <v>328</v>
+      </c>
+      <c r="D340" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.4666666666666668</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C341" s="9"/>
-      <c r="D341" s="17">
+      <c r="C341" t="s">
+        <v>508</v>
+      </c>
+      <c r="D341" s="14" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C342" s="9"/>
-      <c r="D342" s="17">
+      <c r="C342" t="s">
+        <v>508</v>
+      </c>
+      <c r="D342" s="14" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C343" s="9"/>
-      <c r="D343" s="17">
+      <c r="C343">
+        <v>98</v>
+      </c>
+      <c r="D343" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.6333333333333333</v>
       </c>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C344" s="9"/>
-      <c r="D344" s="17">
+      <c r="C344">
+        <v>365</v>
+      </c>
+      <c r="D344" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B345" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C345" s="9"/>
-      <c r="D345" s="17">
+      <c r="C345">
+        <v>322</v>
+      </c>
+      <c r="D345" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.3666666666666663</v>
       </c>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C346" s="9"/>
-      <c r="D346" s="17">
+      <c r="C346">
+        <v>294</v>
+      </c>
+      <c r="D346" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C347" s="9"/>
-      <c r="D347" s="17">
+      <c r="C347">
+        <v>304</v>
+      </c>
+      <c r="D347" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.0666666666666664</v>
       </c>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C348" s="9"/>
-      <c r="D348" s="17">
+      <c r="C348">
+        <v>3</v>
+      </c>
+      <c r="D348" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C349" s="9"/>
-      <c r="D349" s="17">
+      <c r="C349">
+        <v>238</v>
+      </c>
+      <c r="D349" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.9666666666666668</v>
       </c>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C350" s="9"/>
-      <c r="D350" s="17">
+      <c r="C350">
+        <v>40</v>
+      </c>
+      <c r="D350" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C351" s="9"/>
-      <c r="D351" s="17">
+      <c r="C351">
+        <v>148</v>
+      </c>
+      <c r="D351" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4666666666666668</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C352" s="9"/>
-      <c r="D352" s="17">
+      <c r="C352">
+        <v>308</v>
+      </c>
+      <c r="D352" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+        <v>5.1333333333333337</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B353" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C353" s="9"/>
-      <c r="D353" s="17">
+      <c r="C353">
+        <v>316</v>
+      </c>
+      <c r="D353" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+        <v>5.2666666666666666</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B354" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C354" s="9"/>
-      <c r="D354" s="17">
+      <c r="C354">
+        <v>308</v>
+      </c>
+      <c r="D354" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+        <v>5.1333333333333337</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B355" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C355" s="9"/>
-      <c r="D355" s="17">
+      <c r="C355">
+        <v>229</v>
+      </c>
+      <c r="D355" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+        <v>3.8166666666666669</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B356" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C356" s="9"/>
-      <c r="D356" s="17">
+      <c r="C356">
+        <v>98</v>
+      </c>
+      <c r="D356" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B357" s="8" t="s">
+        <v>1.6333333333333333</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="20"/>
+      <c r="B357" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C357" s="9"/>
-      <c r="D357" s="17">
+      <c r="C357" s="20">
+        <v>596</v>
+      </c>
+      <c r="D357" s="22">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+        <v>9.9333333333333336</v>
+      </c>
+      <c r="E357" s="20"/>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B358" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C358" s="9"/>
-      <c r="D358" s="17">
+      <c r="D358" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B359" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C359" s="9"/>
-      <c r="D359" s="17">
+      <c r="D359" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B360" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C360" s="9"/>
-      <c r="D360" s="17">
+      <c r="D360" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B361" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C361" s="9"/>
-      <c r="D361" s="17">
+      <c r="D361" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B362" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C362" s="9"/>
-      <c r="D362" s="17">
+      <c r="D362" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B363" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C363" s="9"/>
-      <c r="D363" s="17">
+      <c r="D363" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B364" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C364" s="9"/>
-      <c r="D364" s="17">
+      <c r="D364" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B365" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C365" s="9"/>
-      <c r="D365" s="17">
+      <c r="D365" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B366" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C366" s="9"/>
-      <c r="D366" s="17">
+      <c r="D366" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B367" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C367" s="9"/>
-      <c r="D367" s="17">
+      <c r="D367" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B368" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C368" s="9"/>
-      <c r="D368" s="17">
+      <c r="D368" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6254,8 +6959,7 @@
       <c r="B369" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C369" s="9"/>
-      <c r="D369" s="17">
+      <c r="D369" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6264,8 +6968,7 @@
       <c r="B370" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C370" s="9"/>
-      <c r="D370" s="17">
+      <c r="D370" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6274,8 +6977,7 @@
       <c r="B371" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C371" s="9"/>
-      <c r="D371" s="17">
+      <c r="D371" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6284,8 +6986,7 @@
       <c r="B372" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="C372" s="9"/>
-      <c r="D372" s="17">
+      <c r="D372" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6294,8 +6995,7 @@
       <c r="B373" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C373" s="9"/>
-      <c r="D373" s="17">
+      <c r="D373" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6304,8 +7004,7 @@
       <c r="B374" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C374" s="9"/>
-      <c r="D374" s="17">
+      <c r="D374" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6314,8 +7013,7 @@
       <c r="B375" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C375" s="9"/>
-      <c r="D375" s="17">
+      <c r="D375" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6324,8 +7022,7 @@
       <c r="B376" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C376" s="9"/>
-      <c r="D376" s="17">
+      <c r="D376" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6334,8 +7031,7 @@
       <c r="B377" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C377" s="9"/>
-      <c r="D377" s="17">
+      <c r="D377" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6344,8 +7040,7 @@
       <c r="B378" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C378" s="9"/>
-      <c r="D378" s="17">
+      <c r="D378" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6354,8 +7049,7 @@
       <c r="B379" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C379" s="9"/>
-      <c r="D379" s="17">
+      <c r="D379" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6364,8 +7058,7 @@
       <c r="B380" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C380" s="9"/>
-      <c r="D380" s="17">
+      <c r="D380" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6374,8 +7067,7 @@
       <c r="B381" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C381" s="9"/>
-      <c r="D381" s="17">
+      <c r="D381" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6384,8 +7076,7 @@
       <c r="B382" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C382" s="9"/>
-      <c r="D382" s="17">
+      <c r="D382" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6394,8 +7085,7 @@
       <c r="B383" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C383" s="9"/>
-      <c r="D383" s="17">
+      <c r="D383" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6404,8 +7094,7 @@
       <c r="B384" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C384" s="9"/>
-      <c r="D384" s="17">
+      <c r="D384" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6414,8 +7103,7 @@
       <c r="B385" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C385" s="9"/>
-      <c r="D385" s="17">
+      <c r="D385" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6424,8 +7112,7 @@
       <c r="B386" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C386" s="9"/>
-      <c r="D386" s="17">
+      <c r="D386" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6434,8 +7121,7 @@
       <c r="B387" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C387" s="9"/>
-      <c r="D387" s="17">
+      <c r="D387" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6444,8 +7130,7 @@
       <c r="B388" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C388" s="9"/>
-      <c r="D388" s="17">
+      <c r="D388" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6454,8 +7139,7 @@
       <c r="B389" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C389" s="9"/>
-      <c r="D389" s="17">
+      <c r="D389" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6464,8 +7148,7 @@
       <c r="B390" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C390" s="9"/>
-      <c r="D390" s="17">
+      <c r="D390" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6474,8 +7157,7 @@
       <c r="B391" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C391" s="9"/>
-      <c r="D391" s="17">
+      <c r="D391" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -6484,8 +7166,7 @@
       <c r="B392" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C392" s="9"/>
-      <c r="D392" s="17">
+      <c r="D392" s="14">
         <f t="shared" ref="D392:D455" si="6">C392/60</f>
         <v>0</v>
       </c>
@@ -6494,8 +7175,7 @@
       <c r="B393" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C393" s="9"/>
-      <c r="D393" s="17">
+      <c r="D393" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6504,8 +7184,7 @@
       <c r="B394" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C394" s="9"/>
-      <c r="D394" s="17">
+      <c r="D394" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6514,8 +7193,7 @@
       <c r="B395" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C395" s="9"/>
-      <c r="D395" s="17">
+      <c r="D395" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6524,8 +7202,7 @@
       <c r="B396" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C396" s="9"/>
-      <c r="D396" s="17">
+      <c r="D396" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6534,8 +7211,7 @@
       <c r="B397" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C397" s="9"/>
-      <c r="D397" s="17">
+      <c r="D397" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6544,8 +7220,7 @@
       <c r="B398" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C398" s="9"/>
-      <c r="D398" s="17">
+      <c r="D398" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6554,8 +7229,7 @@
       <c r="B399" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C399" s="9"/>
-      <c r="D399" s="17">
+      <c r="D399" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6564,8 +7238,7 @@
       <c r="B400" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C400" s="9"/>
-      <c r="D400" s="17">
+      <c r="D400" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6574,8 +7247,7 @@
       <c r="B401" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C401" s="9"/>
-      <c r="D401" s="17">
+      <c r="D401" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6584,8 +7256,7 @@
       <c r="B402" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C402" s="9"/>
-      <c r="D402" s="17">
+      <c r="D402" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6594,8 +7265,7 @@
       <c r="B403" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C403" s="9"/>
-      <c r="D403" s="17">
+      <c r="D403" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6604,8 +7274,7 @@
       <c r="B404" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C404" s="9"/>
-      <c r="D404" s="17">
+      <c r="D404" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6614,8 +7283,7 @@
       <c r="B405" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C405" s="9"/>
-      <c r="D405" s="17">
+      <c r="D405" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6624,8 +7292,7 @@
       <c r="B406" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C406" s="9"/>
-      <c r="D406" s="17">
+      <c r="D406" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6634,8 +7301,7 @@
       <c r="B407" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C407" s="9"/>
-      <c r="D407" s="17">
+      <c r="D407" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6644,8 +7310,7 @@
       <c r="B408" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C408" s="9"/>
-      <c r="D408" s="17">
+      <c r="D408" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6654,8 +7319,7 @@
       <c r="B409" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C409" s="9"/>
-      <c r="D409" s="17">
+      <c r="D409" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6664,8 +7328,7 @@
       <c r="B410" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C410" s="9"/>
-      <c r="D410" s="17">
+      <c r="D410" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6674,8 +7337,7 @@
       <c r="B411" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C411" s="9"/>
-      <c r="D411" s="17">
+      <c r="D411" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6684,8 +7346,7 @@
       <c r="B412" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C412" s="9"/>
-      <c r="D412" s="17">
+      <c r="D412" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6694,8 +7355,7 @@
       <c r="B413" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C413" s="9"/>
-      <c r="D413" s="17">
+      <c r="D413" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6704,8 +7364,7 @@
       <c r="B414" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C414" s="9"/>
-      <c r="D414" s="17">
+      <c r="D414" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6714,8 +7373,7 @@
       <c r="B415" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C415" s="9"/>
-      <c r="D415" s="17">
+      <c r="D415" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6724,8 +7382,7 @@
       <c r="B416" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C416" s="9"/>
-      <c r="D416" s="17">
+      <c r="D416" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6734,8 +7391,7 @@
       <c r="B417" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C417" s="9"/>
-      <c r="D417" s="17">
+      <c r="D417" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6744,8 +7400,7 @@
       <c r="B418" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C418" s="9"/>
-      <c r="D418" s="17">
+      <c r="D418" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6754,8 +7409,7 @@
       <c r="B419" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C419" s="9"/>
-      <c r="D419" s="17">
+      <c r="D419" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6764,8 +7418,7 @@
       <c r="B420" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C420" s="9"/>
-      <c r="D420" s="17">
+      <c r="D420" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6774,8 +7427,7 @@
       <c r="B421" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C421" s="9"/>
-      <c r="D421" s="17">
+      <c r="D421" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6784,8 +7436,7 @@
       <c r="B422" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C422" s="9"/>
-      <c r="D422" s="17">
+      <c r="D422" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6794,8 +7445,7 @@
       <c r="B423" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C423" s="9"/>
-      <c r="D423" s="17">
+      <c r="D423" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6804,8 +7454,7 @@
       <c r="B424" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C424" s="9"/>
-      <c r="D424" s="17">
+      <c r="D424" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6814,8 +7463,7 @@
       <c r="B425" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C425" s="9"/>
-      <c r="D425" s="17">
+      <c r="D425" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6824,8 +7472,7 @@
       <c r="B426" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C426" s="9"/>
-      <c r="D426" s="17">
+      <c r="D426" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6834,8 +7481,7 @@
       <c r="B427" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C427" s="9"/>
-      <c r="D427" s="17">
+      <c r="D427" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6844,8 +7490,7 @@
       <c r="B428" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C428" s="9"/>
-      <c r="D428" s="17">
+      <c r="D428" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6854,8 +7499,7 @@
       <c r="B429" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C429" s="9"/>
-      <c r="D429" s="17">
+      <c r="D429" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6864,8 +7508,7 @@
       <c r="B430" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C430" s="9"/>
-      <c r="D430" s="17">
+      <c r="D430" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6874,8 +7517,7 @@
       <c r="B431" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C431" s="9"/>
-      <c r="D431" s="17">
+      <c r="D431" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6884,8 +7526,7 @@
       <c r="B432" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C432" s="9"/>
-      <c r="D432" s="17">
+      <c r="D432" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6894,8 +7535,7 @@
       <c r="B433" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C433" s="9"/>
-      <c r="D433" s="17">
+      <c r="D433" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6904,8 +7544,7 @@
       <c r="B434" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C434" s="9"/>
-      <c r="D434" s="17">
+      <c r="D434" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6914,8 +7553,7 @@
       <c r="B435" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C435" s="9"/>
-      <c r="D435" s="17">
+      <c r="D435" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6924,8 +7562,7 @@
       <c r="B436" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C436" s="9"/>
-      <c r="D436" s="17">
+      <c r="D436" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6934,8 +7571,7 @@
       <c r="B437" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C437" s="9"/>
-      <c r="D437" s="17">
+      <c r="D437" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6944,8 +7580,7 @@
       <c r="B438" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C438" s="9"/>
-      <c r="D438" s="17">
+      <c r="D438" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6954,8 +7589,7 @@
       <c r="B439" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="C439" s="9"/>
-      <c r="D439" s="17">
+      <c r="D439" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6964,8 +7598,7 @@
       <c r="B440" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C440" s="9"/>
-      <c r="D440" s="17">
+      <c r="D440" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6974,8 +7607,7 @@
       <c r="B441" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C441" s="9"/>
-      <c r="D441" s="17">
+      <c r="D441" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6984,8 +7616,7 @@
       <c r="B442" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C442" s="9"/>
-      <c r="D442" s="17">
+      <c r="D442" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -6994,8 +7625,7 @@
       <c r="B443" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C443" s="9"/>
-      <c r="D443" s="17">
+      <c r="D443" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7004,8 +7634,7 @@
       <c r="B444" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C444" s="9"/>
-      <c r="D444" s="17">
+      <c r="D444" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7014,8 +7643,7 @@
       <c r="B445" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C445" s="9"/>
-      <c r="D445" s="17">
+      <c r="D445" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7024,8 +7652,7 @@
       <c r="B446" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C446" s="9"/>
-      <c r="D446" s="17">
+      <c r="D446" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7034,8 +7661,7 @@
       <c r="B447" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="C447" s="9"/>
-      <c r="D447" s="17">
+      <c r="D447" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7044,8 +7670,7 @@
       <c r="B448" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C448" s="9"/>
-      <c r="D448" s="17">
+      <c r="D448" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7054,8 +7679,7 @@
       <c r="B449" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C449" s="9"/>
-      <c r="D449" s="17">
+      <c r="D449" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7064,8 +7688,7 @@
       <c r="B450" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C450" s="9"/>
-      <c r="D450" s="17">
+      <c r="D450" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7074,8 +7697,7 @@
       <c r="B451" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C451" s="9"/>
-      <c r="D451" s="17">
+      <c r="D451" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7084,8 +7706,7 @@
       <c r="B452" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C452" s="9"/>
-      <c r="D452" s="17">
+      <c r="D452" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7094,8 +7715,7 @@
       <c r="B453" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C453" s="9"/>
-      <c r="D453" s="17">
+      <c r="D453" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7104,8 +7724,7 @@
       <c r="B454" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="C454" s="9"/>
-      <c r="D454" s="17">
+      <c r="D454" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7114,8 +7733,7 @@
       <c r="B455" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C455" s="9"/>
-      <c r="D455" s="17">
+      <c r="D455" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7124,8 +7742,7 @@
       <c r="B456" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C456" s="9"/>
-      <c r="D456" s="17">
+      <c r="D456" s="14">
         <f t="shared" ref="D456:D502" si="7">C456/60</f>
         <v>0</v>
       </c>
@@ -7134,8 +7751,7 @@
       <c r="B457" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="C457" s="9"/>
-      <c r="D457" s="17">
+      <c r="D457" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7144,8 +7760,7 @@
       <c r="B458" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C458" s="9"/>
-      <c r="D458" s="17">
+      <c r="D458" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7154,8 +7769,7 @@
       <c r="B459" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C459" s="9"/>
-      <c r="D459" s="17">
+      <c r="D459" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7164,8 +7778,7 @@
       <c r="B460" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C460" s="9"/>
-      <c r="D460" s="17">
+      <c r="D460" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7174,8 +7787,7 @@
       <c r="B461" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C461" s="9"/>
-      <c r="D461" s="17">
+      <c r="D461" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7184,8 +7796,7 @@
       <c r="B462" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C462" s="9"/>
-      <c r="D462" s="17">
+      <c r="D462" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7194,8 +7805,7 @@
       <c r="B463" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C463" s="9"/>
-      <c r="D463" s="17">
+      <c r="D463" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7204,8 +7814,7 @@
       <c r="B464" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C464" s="9"/>
-      <c r="D464" s="17">
+      <c r="D464" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7214,8 +7823,7 @@
       <c r="B465" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C465" s="9"/>
-      <c r="D465" s="17">
+      <c r="D465" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7224,8 +7832,7 @@
       <c r="B466" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C466" s="9"/>
-      <c r="D466" s="17">
+      <c r="D466" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7234,8 +7841,7 @@
       <c r="B467" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C467" s="9"/>
-      <c r="D467" s="17">
+      <c r="D467" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7244,8 +7850,7 @@
       <c r="B468" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C468" s="9"/>
-      <c r="D468" s="17">
+      <c r="D468" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7254,8 +7859,7 @@
       <c r="B469" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C469" s="9"/>
-      <c r="D469" s="17">
+      <c r="D469" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7264,8 +7868,7 @@
       <c r="B470" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C470" s="9"/>
-      <c r="D470" s="17">
+      <c r="D470" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7274,8 +7877,7 @@
       <c r="B471" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C471" s="9"/>
-      <c r="D471" s="17">
+      <c r="D471" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7284,8 +7886,7 @@
       <c r="B472" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C472" s="9"/>
-      <c r="D472" s="17">
+      <c r="D472" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7294,8 +7895,7 @@
       <c r="B473" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C473" s="9"/>
-      <c r="D473" s="17">
+      <c r="D473" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7304,8 +7904,7 @@
       <c r="B474" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C474" s="9"/>
-      <c r="D474" s="17">
+      <c r="D474" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7314,8 +7913,7 @@
       <c r="B475" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C475" s="9"/>
-      <c r="D475" s="17">
+      <c r="D475" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7324,8 +7922,7 @@
       <c r="B476" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="C476" s="9"/>
-      <c r="D476" s="17">
+      <c r="D476" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7334,8 +7931,7 @@
       <c r="B477" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="C477" s="9"/>
-      <c r="D477" s="17">
+      <c r="D477" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7344,8 +7940,7 @@
       <c r="B478" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C478" s="9"/>
-      <c r="D478" s="17">
+      <c r="D478" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7354,8 +7949,7 @@
       <c r="B479" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="C479" s="9"/>
-      <c r="D479" s="17">
+      <c r="D479" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7364,8 +7958,7 @@
       <c r="B480" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="C480" s="9"/>
-      <c r="D480" s="17">
+      <c r="D480" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7374,8 +7967,7 @@
       <c r="B481" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C481" s="9"/>
-      <c r="D481" s="17">
+      <c r="D481" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7384,8 +7976,7 @@
       <c r="B482" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C482" s="9"/>
-      <c r="D482" s="17">
+      <c r="D482" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7394,8 +7985,7 @@
       <c r="B483" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C483" s="9"/>
-      <c r="D483" s="17">
+      <c r="D483" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7404,8 +7994,7 @@
       <c r="B484" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="C484" s="9"/>
-      <c r="D484" s="17">
+      <c r="D484" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7414,8 +8003,7 @@
       <c r="B485" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C485" s="9"/>
-      <c r="D485" s="17">
+      <c r="D485" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7424,8 +8012,7 @@
       <c r="B486" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C486" s="9"/>
-      <c r="D486" s="17">
+      <c r="D486" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7434,8 +8021,7 @@
       <c r="B487" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C487" s="9"/>
-      <c r="D487" s="17">
+      <c r="D487" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7444,8 +8030,7 @@
       <c r="B488" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="C488" s="9"/>
-      <c r="D488" s="17">
+      <c r="D488" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7454,8 +8039,7 @@
       <c r="B489" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="C489" s="9"/>
-      <c r="D489" s="17">
+      <c r="D489" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7464,8 +8048,7 @@
       <c r="B490" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="C490" s="9"/>
-      <c r="D490" s="17">
+      <c r="D490" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7474,8 +8057,7 @@
       <c r="B491" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C491" s="9"/>
-      <c r="D491" s="17">
+      <c r="D491" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7484,8 +8066,7 @@
       <c r="B492" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="C492" s="9"/>
-      <c r="D492" s="17">
+      <c r="D492" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7494,8 +8075,7 @@
       <c r="B493" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="C493" s="9"/>
-      <c r="D493" s="17">
+      <c r="D493" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7504,8 +8084,7 @@
       <c r="B494" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="C494" s="9"/>
-      <c r="D494" s="17">
+      <c r="D494" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7514,8 +8093,7 @@
       <c r="B495" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="C495" s="9"/>
-      <c r="D495" s="17">
+      <c r="D495" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7524,8 +8102,7 @@
       <c r="B496" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="C496" s="9"/>
-      <c r="D496" s="17">
+      <c r="D496" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7534,8 +8111,7 @@
       <c r="B497" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="C497" s="9"/>
-      <c r="D497" s="17">
+      <c r="D497" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7544,8 +8120,7 @@
       <c r="B498" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C498" s="9"/>
-      <c r="D498" s="17">
+      <c r="D498" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7554,8 +8129,7 @@
       <c r="B499" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="C499" s="9"/>
-      <c r="D499" s="17">
+      <c r="D499" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7564,8 +8138,7 @@
       <c r="B500" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="C500" s="9"/>
-      <c r="D500" s="17">
+      <c r="D500" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7574,18 +8147,17 @@
       <c r="B501" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="C501" s="9"/>
-      <c r="D501" s="17">
+      <c r="D501" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B502" s="10" t="s">
+      <c r="B502" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="C502" s="11"/>
-      <c r="D502" s="18">
+      <c r="C502" s="10"/>
+      <c r="D502" s="15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
